--- a/SWP_TEAM_4/SWP_TEAM_4/Online_Learn/Results.xlsx
+++ b/SWP_TEAM_4/SWP_TEAM_4/Online_Learn/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Result Id</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Time</t>
-  </si>
-  <si>
-    <t>Not Pass</t>
   </si>
 </sst>
 </file>
@@ -81,7 +78,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -110,29 +107,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/SWP_TEAM_4/SWP_TEAM_4/Online_Learn/Results.xlsx
+++ b/SWP_TEAM_4/SWP_TEAM_4/Online_Learn/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Result Id</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Not Pass</t>
   </si>
 </sst>
 </file>
@@ -78,7 +81,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -107,6 +110,75 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
